--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,16 +512,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,24 +562,224 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Contact DJI Support if this persists</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aircraft Contact DJI Support if this persists</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3-9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Aircraft unable to return to home automatically</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Failed to take off</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Contact DJI Support if this error persists after restarting</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Failed to take</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No GPS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Return to Home failed</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2-5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,16 +512,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,224 +562,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Aircraft Contact DJI Support if this persists</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Aircraft unable to return to home automatically</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Failed to take off</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10-18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Failed to take</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No GPS</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Return to Home failed</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>False</t>
         </is>
